--- a/transportationOptModel/dataInputs/inputSheet.xlsx
+++ b/transportationOptModel/dataInputs/inputSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\KAUST\transportationOptModel\dataInputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC749BE-1B40-4E93-999B-9080B4C2263D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA036F5-5D40-4218-BD1C-70F3B89D920B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="1063" windowWidth="24686" windowHeight="9454" activeTab="2" xr2:uid="{C78BB985-2909-456E-9706-1AF3A078D42E}"/>
+    <workbookView xWindow="3017" yWindow="3017" windowWidth="24686" windowHeight="9454" activeTab="2" xr2:uid="{C78BB985-2909-456E-9706-1AF3A078D42E}"/>
   </bookViews>
   <sheets>
     <sheet name="systemSettings" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>ParamName</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>Region 2</t>
-  </si>
-  <si>
-    <t>Region 3</t>
   </si>
   <si>
     <t>SK</t>
@@ -505,14 +502,14 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19.69140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.3828125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
@@ -655,7 +652,7 @@
   <cols>
     <col min="1" max="1" width="10.84375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.69140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.15234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
@@ -739,15 +736,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74DEDBE-EF1B-4D2F-B9BE-24E6D1A6D7FC}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -757,67 +754,52 @@
       <c r="C1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-8</v>
+        <v>-20</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -825,13 +807,10 @@
         <v>-5</v>
       </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -841,39 +820,30 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -881,13 +851,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -895,10 +862,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -921,7 +885,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -929,7 +893,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -937,7 +901,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -945,7 +909,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -953,7 +917,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>4</v>
